--- a/data/trans_dic/P32D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Provincia-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en atracón más de una vez al mes (Binge drinking) (6/5 o más bebidas estándar para hombre/mujer, respectivamente; 5/4 si mayores de 65 años) en una misma ocasión (entre 4-6h) (tasa de respuesta: 99,36%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking) (tasa de respuesta: 99,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1098,7 +1098,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en atracón más de una vez al mes (Binge drinking) (6/5 o más bebidas estándar para hombre/mujer, respectivamente; 5/4 si mayores de 65 años) en una misma ocasión (entre 4-6h) (tasa de respuesta: 99,36%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking) (tasa de respuesta: 99,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00420372342503516</v>
+        <v>0.00424431896576168</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01035010825868165</v>
+        <v>0.009464799807546291</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00996407350869029</v>
+        <v>0.01026805933052169</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04759389741396196</v>
+        <v>0.0502070526972383</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0920942103641577</v>
+        <v>0.08978239613191588</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04875063327742581</v>
+        <v>0.04474153146516474</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.01467974336813765</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.03082248568563493</v>
+        <v>0.03082248568563494</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01588203632405511</v>
+        <v>0.0154255139444187</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01573287243309802</v>
+        <v>0.01395426252539048</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08286055078795956</v>
+        <v>0.07760883465338279</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04713525913708198</v>
+        <v>0.05460885599520617</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05853279250930583</v>
+        <v>0.05913685458685383</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.08765510389935019</v>
+        <v>0.0876551038993502</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.01062786384921993</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05229216829203075</v>
+        <v>0.05164918713593148</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03792346279588663</v>
+        <v>0.03668983299621661</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1375216672270067</v>
+        <v>0.1345983636257113</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05343083136901453</v>
+        <v>0.06488015699607314</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09856083864319436</v>
+        <v>0.09645015381488202</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02513552616172276</v>
+        <v>0.02478966597484589</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04258094778343604</v>
+        <v>0.04355609146741628</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04105257696412981</v>
+        <v>0.04033802440357909</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1337349980810522</v>
+        <v>0.1351908920226314</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1544898150583033</v>
+        <v>0.1466904599645231</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1181385924102931</v>
+        <v>0.115902297165864</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.0809780327794037</v>
+        <v>0.08097803277940369</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.07824866910947437</v>
+        <v>0.07824866910947438</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.0803200148299844</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01961105487571478</v>
+        <v>0.01985347013373311</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02889765569008394</v>
+        <v>0.02393143274619909</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2240890939329565</v>
+        <v>0.246923628214319</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2616237608521266</v>
+        <v>0.2523783200773209</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2021930407131331</v>
+        <v>0.1860941048244674</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.1674373155192578</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.07268055587409392</v>
+        <v>0.07268055587409393</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1318105626865826</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1155144721223774</v>
+        <v>0.1165719400562852</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03538122633183263</v>
+        <v>0.03558036798656371</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09468761240852409</v>
+        <v>0.09659993363985901</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2267505754497768</v>
+        <v>0.2275473227218055</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1333235481758447</v>
+        <v>0.1366274788360495</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1730867575479108</v>
+        <v>0.176144611526067</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09128331550259594</v>
+        <v>0.09018168579732172</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05243202825872939</v>
+        <v>0.05229187213795295</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08280714693752195</v>
+        <v>0.08357816837741636</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1730041030927391</v>
+        <v>0.1722976332333446</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1407908489687081</v>
+        <v>0.1318597046871081</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1414906404079272</v>
+        <v>0.1435449331204998</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.10542680034234</v>
+        <v>0.1073269217165802</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1043799421459457</v>
+        <v>0.1016333107559053</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1164082605217894</v>
+        <v>0.1180489899622494</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2010469827323349</v>
+        <v>0.1990118721608164</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2433148975867156</v>
+        <v>0.2479429681473768</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1972909140478968</v>
+        <v>0.1929620101496914</v>
       </c>
     </row>
     <row r="28">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.09654572999107143</v>
+        <v>0.09654572999107146</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.07098942938712387</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.08262968922257473</v>
+        <v>0.08144621024209657</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05649558865560381</v>
+        <v>0.05495262141314547</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07564053034771717</v>
+        <v>0.07658115204466309</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1137248957514352</v>
+        <v>0.1142523877741546</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.09129741785422876</v>
+        <v>0.09152901146971104</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1002592540849506</v>
+        <v>0.100230720776468</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1006</v>
+        <v>920</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2662</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8086</v>
+        <v>8530</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8954</v>
+        <v>8730</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13023</v>
+        <v>11952</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4127</v>
+        <v>4008</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6022</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21532</v>
+        <v>20167</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5792</v>
+        <v>6711</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22403</v>
+        <v>22634</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9685</v>
+        <v>9566</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10391</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25470</v>
+        <v>24929</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4744</v>
+        <v>5760</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27005</v>
+        <v>26426</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5074</v>
+        <v>5004</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5861</v>
+        <v>5995</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13937</v>
+        <v>13694</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26995</v>
+        <v>27289</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21264</v>
+        <v>20190</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40107</v>
+        <v>39348</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1300</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7650</v>
+        <v>8429</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2837</v>
+        <v>2737</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9095</v>
+        <v>8371</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>18826</v>
+        <v>18998</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3474</v>
+        <v>3494</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>24729</v>
+        <v>25229</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>36954</v>
+        <v>37084</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13092</v>
+        <v>13416</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>45205</v>
+        <v>46003</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>31599</v>
+        <v>31218</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>12250</v>
+        <v>12218</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>48012</v>
+        <v>48459</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>59888</v>
+        <v>59644</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>32895</v>
+        <v>30808</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>82038</v>
+        <v>83229</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>32946</v>
+        <v>33540</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>11999</v>
+        <v>11683</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>49759</v>
+        <v>50460</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>62827</v>
+        <v>62191</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>27970</v>
+        <v>28502</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>84333</v>
+        <v>82482</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>138206</v>
+        <v>136227</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>51081</v>
+        <v>49686</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>194908</v>
+        <v>197331</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>190216</v>
+        <v>191098</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>82548</v>
+        <v>82757</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>258344</v>
+        <v>258271</v>
       </c>
     </row>
     <row r="40">
